--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,397 +43,415 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>defective</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>would</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>positive</t>
@@ -794,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,7 +823,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -913,13 +931,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7391304347826086</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7037037037037037</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -987,13 +1005,13 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.8668730650154799</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1005,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.675</v>
+        <v>0.625</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5283018867924528</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7922077922077922</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1105,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1131,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4883720930232558</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.7694915254237288</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L8">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="M8">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.46</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,37 +1231,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>30</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1281,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3838383838383838</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.6853932584269663</v>
+        <v>0.6875</v>
       </c>
       <c r="L11">
-        <v>854</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>854</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>392</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1313,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3529411764705883</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.6444444444444445</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1355,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,13 +1381,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3076923076923077</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1381,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.6428571428571429</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1405,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1413,13 +1431,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2594594594594595</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1431,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.6363636363636364</v>
+        <v>0.6701444622792937</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1455,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1463,13 +1481,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2555555555555555</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1481,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.6304347826086957</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1505,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,13 +1531,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1941747572815534</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1531,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.6227544910179641</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1555,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1563,13 +1581,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1864406779661017</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1581,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.6206896551724138</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1605,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1613,37 +1631,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1081081081081081</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1655,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1663,37 +1681,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1030927835051546</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6047904191616766</v>
       </c>
       <c r="L19">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M19">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1705,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1713,37 +1731,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0423728813559322</v>
+        <v>0.04189944134078212</v>
       </c>
       <c r="C20">
         <v>15</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="F20">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.5915492957746479</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1755,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1763,37 +1781,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02773925104022192</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F21">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.5865384615384616</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L21">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1805,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1813,37 +1831,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02380952380952381</v>
+        <v>0.01539942252165544</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E22">
-        <v>0.55</v>
+        <v>0.88</v>
       </c>
       <c r="F22">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>697</v>
+        <v>1023</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.5789473684210527</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1855,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1863,13 +1881,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.5662650602409639</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1881,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1889,13 +1907,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.5641025641025641</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1933,13 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1941,13 +1959,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.5180722891566265</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1959,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1967,13 +1985,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.4791666666666667</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1985,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1993,13 +2011,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.4769230769230769</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2011,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,13 +2037,13 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.4754098360655737</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2063,13 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2063,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2071,13 +2089,13 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.4705882352941176</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2089,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2097,13 +2115,13 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.4691358024691358</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2115,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2123,13 +2141,13 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.4583333333333333</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L33">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2141,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>221</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2149,13 +2167,13 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0.4489795918367347</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2175,13 +2193,13 @@
         <v>61</v>
       </c>
       <c r="K35">
-        <v>0.4444444444444444</v>
+        <v>0.4485294117647059</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2193,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2201,13 +2219,13 @@
         <v>62</v>
       </c>
       <c r="K36">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2219,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2227,13 +2245,13 @@
         <v>63</v>
       </c>
       <c r="K37">
-        <v>0.4164383561643836</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2245,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>426</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2253,13 +2271,13 @@
         <v>64</v>
       </c>
       <c r="K38">
-        <v>0.4126984126984127</v>
+        <v>0.4280155642023346</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2271,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2279,13 +2297,13 @@
         <v>65</v>
       </c>
       <c r="K39">
-        <v>0.4085603112840467</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L39">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2297,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>152</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2305,13 +2323,13 @@
         <v>66</v>
       </c>
       <c r="K40">
-        <v>0.3888888888888889</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2323,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2331,25 +2349,25 @@
         <v>67</v>
       </c>
       <c r="K41">
-        <v>0.3846153846153846</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2357,13 +2375,13 @@
         <v>68</v>
       </c>
       <c r="K42">
-        <v>0.3693693693693694</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2383,13 +2401,13 @@
         <v>69</v>
       </c>
       <c r="K43">
-        <v>0.3684210526315789</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L43">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2401,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2409,13 +2427,13 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>0.3609022556390977</v>
+        <v>0.3841059602649007</v>
       </c>
       <c r="L44">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M44">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2427,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2435,13 +2453,13 @@
         <v>71</v>
       </c>
       <c r="K45">
-        <v>0.3509933774834437</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L45">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2453,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2461,13 +2479,13 @@
         <v>72</v>
       </c>
       <c r="K46">
-        <v>0.3469387755102041</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2479,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2487,25 +2505,25 @@
         <v>73</v>
       </c>
       <c r="K47">
-        <v>0.3421052631578947</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2513,25 +2531,25 @@
         <v>74</v>
       </c>
       <c r="K48">
-        <v>0.3260869565217391</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2539,25 +2557,25 @@
         <v>75</v>
       </c>
       <c r="K49">
-        <v>0.3181818181818182</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2565,13 +2583,13 @@
         <v>76</v>
       </c>
       <c r="K50">
-        <v>0.3081896551724138</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L50">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2580,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>642</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2591,13 +2609,13 @@
         <v>77</v>
       </c>
       <c r="K51">
-        <v>0.3064516129032258</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2609,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2617,13 +2635,13 @@
         <v>78</v>
       </c>
       <c r="K52">
-        <v>0.3050397877984085</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L52">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2632,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>524</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2643,13 +2661,13 @@
         <v>79</v>
       </c>
       <c r="K53">
-        <v>0.3035714285714285</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2661,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2669,13 +2687,13 @@
         <v>80</v>
       </c>
       <c r="K54">
-        <v>0.2976190476190476</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2687,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2695,13 +2713,13 @@
         <v>81</v>
       </c>
       <c r="K55">
-        <v>0.2842509603072984</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L55">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="M55">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2710,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>559</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2721,13 +2739,13 @@
         <v>82</v>
       </c>
       <c r="K56">
-        <v>0.2833333333333333</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2739,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2747,13 +2765,13 @@
         <v>83</v>
       </c>
       <c r="K57">
-        <v>0.2695924764890282</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L57">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2765,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>233</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2773,25 +2791,25 @@
         <v>84</v>
       </c>
       <c r="K58">
-        <v>0.2678571428571428</v>
+        <v>0.3114224137931034</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>82</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2799,13 +2817,13 @@
         <v>85</v>
       </c>
       <c r="K59">
-        <v>0.2673267326732673</v>
+        <v>0.3063660477453581</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2814,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>74</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2825,25 +2843,25 @@
         <v>86</v>
       </c>
       <c r="K60">
-        <v>0.265625</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>47</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2851,13 +2869,13 @@
         <v>87</v>
       </c>
       <c r="K61">
-        <v>0.2647058823529412</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2869,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2877,25 +2895,25 @@
         <v>88</v>
       </c>
       <c r="K62">
-        <v>0.2588555858310627</v>
+        <v>0.28125</v>
       </c>
       <c r="L62">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>272</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2903,13 +2921,13 @@
         <v>89</v>
       </c>
       <c r="K63">
-        <v>0.2587719298245614</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L63">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2921,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>338</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2929,25 +2947,25 @@
         <v>90</v>
       </c>
       <c r="K64">
-        <v>0.2452830188679245</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>80</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2955,13 +2973,13 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>0.2439024390243902</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L65">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2973,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2981,13 +2999,13 @@
         <v>92</v>
       </c>
       <c r="K66">
-        <v>0.2348993288590604</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2999,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3007,25 +3025,25 @@
         <v>93</v>
       </c>
       <c r="K67">
-        <v>0.2285714285714286</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>81</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3033,25 +3051,25 @@
         <v>94</v>
       </c>
       <c r="K68">
-        <v>0.2177033492822966</v>
+        <v>0.25</v>
       </c>
       <c r="L68">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>327</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3059,25 +3077,25 @@
         <v>95</v>
       </c>
       <c r="K69">
-        <v>0.2031963470319635</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L69">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>349</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3085,13 +3103,13 @@
         <v>96</v>
       </c>
       <c r="K70">
-        <v>0.2018348623853211</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3103,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3111,25 +3129,25 @@
         <v>97</v>
       </c>
       <c r="K71">
-        <v>0.2</v>
+        <v>0.2392638036809816</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3137,25 +3155,25 @@
         <v>98</v>
       </c>
       <c r="K72">
-        <v>0.1918819188191882</v>
+        <v>0.2364130434782609</v>
       </c>
       <c r="L72">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M72">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>219</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3163,25 +3181,25 @@
         <v>99</v>
       </c>
       <c r="K73">
-        <v>0.1895910780669145</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L73">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>218</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3189,13 +3207,13 @@
         <v>100</v>
       </c>
       <c r="K74">
-        <v>0.1818181818181818</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3207,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3215,13 +3233,13 @@
         <v>101</v>
       </c>
       <c r="K75">
-        <v>0.180327868852459</v>
+        <v>0.2219570405727924</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="M75">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3233,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>100</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3241,25 +3259,25 @@
         <v>102</v>
       </c>
       <c r="K76">
-        <v>0.18</v>
+        <v>0.2209567198177677</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>82</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3267,25 +3285,25 @@
         <v>103</v>
       </c>
       <c r="K77">
-        <v>0.1791044776119403</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L77">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O77">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>165</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3293,25 +3311,25 @@
         <v>104</v>
       </c>
       <c r="K78">
-        <v>0.1764705882352941</v>
+        <v>0.2</v>
       </c>
       <c r="L78">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>336</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3319,13 +3337,13 @@
         <v>105</v>
       </c>
       <c r="K79">
-        <v>0.1739130434782609</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3337,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3345,25 +3363,25 @@
         <v>106</v>
       </c>
       <c r="K80">
-        <v>0.1722689075630252</v>
+        <v>0.1903114186851211</v>
       </c>
       <c r="L80">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M80">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>197</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3371,13 +3389,13 @@
         <v>107</v>
       </c>
       <c r="K81">
-        <v>0.1720430107526882</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3389,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3397,25 +3415,25 @@
         <v>108</v>
       </c>
       <c r="K82">
-        <v>0.1623931623931624</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M82">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3423,25 +3441,25 @@
         <v>109</v>
       </c>
       <c r="K83">
-        <v>0.1615384615384615</v>
+        <v>0.1731707317073171</v>
       </c>
       <c r="L83">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>109</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3449,13 +3467,13 @@
         <v>110</v>
       </c>
       <c r="K84">
-        <v>0.1615120274914089</v>
+        <v>0.17</v>
       </c>
       <c r="L84">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M84">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3467,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>244</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3475,13 +3493,13 @@
         <v>111</v>
       </c>
       <c r="K85">
-        <v>0.1603053435114504</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3493,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3501,25 +3519,25 @@
         <v>112</v>
       </c>
       <c r="K86">
-        <v>0.16</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M86">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O86">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3527,13 +3545,13 @@
         <v>113</v>
       </c>
       <c r="K87">
-        <v>0.1558441558441558</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L87">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M87">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3553,13 +3571,13 @@
         <v>114</v>
       </c>
       <c r="K88">
-        <v>0.1472868217054264</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3571,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3579,25 +3597,25 @@
         <v>115</v>
       </c>
       <c r="K89">
-        <v>0.1436781609195402</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L89">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M89">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N89">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3605,25 +3623,25 @@
         <v>116</v>
       </c>
       <c r="K90">
-        <v>0.141025641025641</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L90">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M90">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>134</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3631,13 +3649,13 @@
         <v>117</v>
       </c>
       <c r="K91">
-        <v>0.1333333333333333</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L91">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3649,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3657,25 +3675,25 @@
         <v>118</v>
       </c>
       <c r="K92">
-        <v>0.130718954248366</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>133</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3683,25 +3701,25 @@
         <v>119</v>
       </c>
       <c r="K93">
-        <v>0.1289719626168224</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L93">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="M93">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="N93">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>932</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3709,13 +3727,13 @@
         <v>120</v>
       </c>
       <c r="K94">
-        <v>0.1174863387978142</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L94">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M94">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3727,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>323</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3735,25 +3753,25 @@
         <v>121</v>
       </c>
       <c r="K95">
-        <v>0.1168831168831169</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="L95">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M95">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>612</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3761,13 +3779,13 @@
         <v>122</v>
       </c>
       <c r="K96">
-        <v>0.1165644171779141</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L96">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M96">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3779,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3787,25 +3805,25 @@
         <v>123</v>
       </c>
       <c r="K97">
-        <v>0.1156462585034014</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="M97">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="N97">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O97">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>130</v>
+        <v>927</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3813,25 +3831,25 @@
         <v>124</v>
       </c>
       <c r="K98">
-        <v>0.1125</v>
+        <v>0.13</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3839,25 +3857,25 @@
         <v>125</v>
       </c>
       <c r="K99">
-        <v>0.1102362204724409</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="L99">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="M99">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="N99">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O99">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>1017</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3865,25 +3883,25 @@
         <v>126</v>
       </c>
       <c r="K100">
-        <v>0.1066176470588235</v>
+        <v>0.12</v>
       </c>
       <c r="L100">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>243</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3891,25 +3909,25 @@
         <v>127</v>
       </c>
       <c r="K101">
-        <v>0.1048951048951049</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M101">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N101">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O101">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3917,25 +3935,25 @@
         <v>128</v>
       </c>
       <c r="K102">
-        <v>0.09057301293900184</v>
+        <v>0.11875</v>
       </c>
       <c r="L102">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M102">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3943,25 +3961,25 @@
         <v>129</v>
       </c>
       <c r="K103">
-        <v>0.08695652173913043</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="L103">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M103">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N103">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3969,25 +3987,25 @@
         <v>130</v>
       </c>
       <c r="K104">
-        <v>0.08611111111111111</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="L104">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M104">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N104">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O104">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>329</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3995,233 +4013,233 @@
         <v>131</v>
       </c>
       <c r="K105">
-        <v>0.0821256038647343</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L105">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N105">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="K106">
-        <v>0.07989690721649484</v>
+        <v>0.1034180543382997</v>
       </c>
       <c r="L106">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="M106">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="N106">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="O106">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>357</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K107">
-        <v>0.07930367504835589</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="L107">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M107">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N107">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O107">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>476</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K108">
-        <v>0.07731958762886598</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L108">
         <v>15</v>
       </c>
       <c r="M108">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N108">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O108">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K109">
-        <v>0.07692307692307693</v>
+        <v>0.08786610878661087</v>
       </c>
       <c r="L109">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M109">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K110">
-        <v>0.07531380753138076</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L110">
         <v>18</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K111">
-        <v>0.07334963325183375</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="L111">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M111">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N111">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O111">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>379</v>
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K112">
-        <v>0.06206896551724138</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="L112">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M112">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N112">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="O112">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="K113">
-        <v>0.06157965194109773</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L113">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M113">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="N113">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>701</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -4229,77 +4247,207 @@
         <v>139</v>
       </c>
       <c r="K114">
-        <v>0.05278592375366569</v>
+        <v>0.07992565055762081</v>
       </c>
       <c r="L114">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M114">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N114">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="O114">
-        <v>0.18</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>323</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K115">
-        <v>0.04775280898876404</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M115">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N115">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="K116">
-        <v>0.02924791086350975</v>
+        <v>0.07334963325183375</v>
       </c>
       <c r="L116">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M116">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N116">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="O116">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>697</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K117">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="L117">
+        <v>26</v>
+      </c>
+      <c r="M117">
+        <v>31</v>
+      </c>
+      <c r="N117">
+        <v>0.84</v>
+      </c>
+      <c r="O117">
+        <v>0.16</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K118">
+        <v>0.06825938566552901</v>
+      </c>
+      <c r="L118">
+        <v>20</v>
+      </c>
+      <c r="M118">
+        <v>26</v>
+      </c>
+      <c r="N118">
+        <v>0.77</v>
+      </c>
+      <c r="O118">
+        <v>0.23</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119">
+        <v>0.05622489959839357</v>
+      </c>
+      <c r="L119">
+        <v>42</v>
+      </c>
+      <c r="M119">
+        <v>62</v>
+      </c>
+      <c r="N119">
+        <v>0.68</v>
+      </c>
+      <c r="O119">
+        <v>0.32</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K120">
+        <v>0.05029585798816568</v>
+      </c>
+      <c r="L120">
+        <v>17</v>
+      </c>
+      <c r="M120">
+        <v>24</v>
+      </c>
+      <c r="N120">
+        <v>0.71</v>
+      </c>
+      <c r="O120">
+        <v>0.29</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K121">
+        <v>0.03576341127922971</v>
+      </c>
+      <c r="L121">
+        <v>26</v>
+      </c>
+      <c r="M121">
+        <v>34</v>
+      </c>
+      <c r="N121">
+        <v>0.76</v>
+      </c>
+      <c r="O121">
+        <v>0.24</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
